--- a/artfynd/A 32281-2023.xlsx
+++ b/artfynd/A 32281-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112098047</v>
+        <v>112098022</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528942.9447194069</v>
+        <v>528907.8083200558</v>
       </c>
       <c r="R2" t="n">
-        <v>6229759.000311463</v>
+        <v>6229763.767073607</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112098022</v>
+        <v>112098047</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528907.8083200558</v>
+        <v>528942.9447194069</v>
       </c>
       <c r="R3" t="n">
-        <v>6229763.767073607</v>
+        <v>6229759.000311463</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 32281-2023.xlsx
+++ b/artfynd/A 32281-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112098022</v>
+        <v>112098047</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528907.8083200558</v>
+        <v>528942.9447194069</v>
       </c>
       <c r="R2" t="n">
-        <v>6229763.767073607</v>
+        <v>6229759.000311463</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112098047</v>
+        <v>112098022</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528942.9447194069</v>
+        <v>528907.8083200558</v>
       </c>
       <c r="R3" t="n">
-        <v>6229759.000311463</v>
+        <v>6229763.767073607</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 32281-2023.xlsx
+++ b/artfynd/A 32281-2023.xlsx
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528942.9447194069</v>
+        <v>528943</v>
       </c>
       <c r="R2" t="n">
-        <v>6229759.000311463</v>
+        <v>6229759</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,19 +765,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -857,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528907.8083200558</v>
+        <v>528908</v>
       </c>
       <c r="R3" t="n">
-        <v>6229763.767073607</v>
+        <v>6229764</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,19 +880,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 32281-2023.xlsx
+++ b/artfynd/A 32281-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112098047</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>112098022</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 32281-2023.xlsx
+++ b/artfynd/A 32281-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112098047</v>
+        <v>112098022</v>
       </c>
       <c r="B2" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528943</v>
+        <v>528908</v>
       </c>
       <c r="R2" t="n">
-        <v>6229759</v>
+        <v>6229764</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112098022</v>
+        <v>112098047</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528908</v>
+        <v>528943</v>
       </c>
       <c r="R3" t="n">
-        <v>6229764</v>
+        <v>6229759</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
